--- a/cOUNTERtYPES.xlsx
+++ b/cOUNTERtYPES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="199">
   <si>
     <t>AVERAGE</t>
   </si>
@@ -519,31 +519,6 @@
     <t>Счетчики производят выборку возрастающего количества событий с течением времени. Счет делится на изменение времени для отображения скорости активности</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Универсальный тип, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>тип счетчика</t>
-    </r>
-  </si>
-  <si>
     <t>Описание</t>
   </si>
   <si>
@@ -557,6 +532,88 @@
   </si>
   <si>
     <t>PERF_SAMPLE_BASE</t>
+  </si>
+  <si>
+    <t>(N1-N0) / (D1-D0)</t>
+  </si>
+  <si>
+    <t>((N1-N0)/F) / (D1-D0)</t>
+  </si>
+  <si>
+    <t>Сортировка по возрастанию</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =(j-0,5)/n</t>
+  </si>
+  <si>
+    <t>НОРМ.СТ.ОБР</t>
+  </si>
+  <si>
+    <t>Порядковый номер (j)</t>
+  </si>
+  <si>
+    <t>Кол-во выборок (n)</t>
+  </si>
+  <si>
+    <t>Изначальные данные (Xj)</t>
+  </si>
+  <si>
+    <t>Универсальный тип, тип счетчика</t>
+  </si>
+  <si>
+    <t>Сколько элементов обрабатывается в среднем во время операции</t>
+  </si>
+  <si>
+    <t>Используется в качестве знаменателя при вычислении средних значений времени или счета</t>
+  </si>
+  <si>
+    <t>Формула текущего значения</t>
+  </si>
+  <si>
+    <t>Формула среднего значения</t>
+  </si>
+  <si>
+    <t>Среднее время, наобходимое для завершения процесса или операции</t>
+  </si>
+  <si>
+    <t>Средняя длина очереди на ресурс во времени</t>
+  </si>
+  <si>
+    <t>(Nх-N0) / (Dх-D0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+PhysicalDisk\ Avg. Disk Queue Length</t>
+  </si>
+  <si>
+    <t>Тоже самое, что и PERF_COUNTER_QUEUELEN_TYPE только пространство для хранения значений больше</t>
+  </si>
+  <si>
+    <t>Среднее число операций, выполненных за 1 сеукнду</t>
+  </si>
+  <si>
+    <t>(N1-N0) / ((D1-D0)/F)</t>
+  </si>
+  <si>
+    <t>(Nх-N0) / ((Dх-D0)/F)</t>
+  </si>
+  <si>
+    <t>((Nх-N0)/F) / (Dх-D0)</t>
+  </si>
+  <si>
+    <t>Числитель - количество обработанных элементов за интервал, знаменатель (базовый тип) - количество операций, выполненных за интервал</t>
+  </si>
+  <si>
+    <t>Числитель - количество выполненных операций за интервал, знаменатель - время, прошеднее за интервал в тиках. F - количество тиков, которые происходят за одну секунду, чтобы получить результат для секунды</t>
+  </si>
+  <si>
+    <t>Числитель - время, прошедшее  за интервал в тиках, знаменатель  (базовый тип) - количество выполненных операций за интервал. Этот тип измеряет время в засечках системных часов. F - количество тиков, которые происходят за одну секунду, чтобы получить результат в секундах</t>
+  </si>
+  <si>
+    <t>Чисслитель - разница между длинами очереди, наблюдаемыми в двух выборках, знаменатель - длительность интервала между выборками</t>
+  </si>
+  <si>
+    <t>PhysicalDisk\ Avg. Disk sec/Transfer</t>
   </si>
 </sst>
 </file>
@@ -611,7 +668,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -634,21 +691,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -661,6 +762,401 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0883533416120027E-2"/>
+          <c:y val="0.47365831262841118"/>
+          <c:w val="0.8847997325950997"/>
+          <c:h val="0.49243090897153435"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>НОРМ.СТ.ОБР</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="50800"/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-2.0368341317013887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5341205443525459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.258161561063097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.054472451770053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.88714655901887607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.74159404386151673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6102946101863328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.48877641111466941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.37409541019772358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.26414697682592364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1573106846101707</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.2245180375940357E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2245180375940489E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1573106846101707</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26414697682592353</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37409541019772363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48877641111466941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61029461018633246</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74159404386151673</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88714655901887607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.054472451770053</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2581615610630965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5341205443525465</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0368341317013874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="50595328"/>
+        <c:axId val="50596864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50595328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="22225">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50596864"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50596864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="22225">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50595328"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="rnd">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,306 +1446,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1257,41 +2038,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1299,22 +2080,22 @@
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1322,22 +2103,22 @@
       <c r="A3">
         <v>97</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1345,22 +2126,22 @@
       <c r="A4">
         <v>96</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1368,22 +2149,22 @@
       <c r="A5">
         <v>103</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1391,22 +2172,22 @@
       <c r="A6">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1414,22 +2195,22 @@
       <c r="A7">
         <v>106</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1437,22 +2218,22 @@
       <c r="A8">
         <v>98</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1460,22 +2241,22 @@
       <c r="A9">
         <v>107</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1483,22 +2264,22 @@
       <c r="A10">
         <v>103</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1506,22 +2287,22 @@
       <c r="A11">
         <v>106</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1529,22 +2310,22 @@
       <c r="A12">
         <v>104</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1552,22 +2333,22 @@
       <c r="A13">
         <v>103</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1575,22 +2356,22 @@
       <c r="A14">
         <v>94</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>7408</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1598,22 +2379,22 @@
       <c r="A15">
         <v>110</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1621,22 +2402,22 @@
       <c r="A16">
         <v>99</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1644,22 +2425,22 @@
       <c r="A17">
         <v>102</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1667,22 +2448,22 @@
       <c r="A18">
         <v>89</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1690,22 +2471,22 @@
       <c r="A19">
         <v>90</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1713,22 +2494,22 @@
       <c r="A20">
         <v>85</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1736,22 +2517,22 @@
       <c r="A21">
         <v>94</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1759,22 +2540,22 @@
       <c r="A22">
         <v>104</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1782,22 +2563,22 @@
       <c r="A23">
         <v>108</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1808,12 +2589,529 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D25" si="0">(C2-0.5)/$G$3</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.NORM.S.INV(D2)</f>
+        <v>-2.0368341317013887</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <f>C2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="1">_xlfn.NORM.S.INV(D3)</f>
+        <v>-1.5341205443525459</v>
+      </c>
+      <c r="G3" s="3">
+        <f>COUNT(A2:A26)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C25" si="2">C3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>-1.258161561063097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-1.054472451770053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>-0.88714655901887607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>-0.74159404386151673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-0.6102946101863328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-0.48877641111466941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-0.37409541019772358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-0.26414697682592364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-0.1573106846101707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-5.2245180375940357E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>5.2245180375940489E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.1573106846101707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.26414697682592353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.37409541019772363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.48877641111466941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.61029461018633246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.74159404386151673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.88714655901887607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.054472451770053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-3</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.2581615610630965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.5341205443525465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.0368341317013874</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:B25">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>